--- a/기능정의서/animal_face_기능정의서_v002_20200731.xlsx
+++ b/기능정의서/animal_face_기능정의서_v002_20200731.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\animal-face\기능정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EF5E2F-6ED5-4123-AB08-7A2CFBCB2BDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711BA886-8100-4F7F-B3B1-434736590602}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="630" windowWidth="13110" windowHeight="12435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="homePage1" sheetId="3" r:id="rId1"/>
     <sheet name="관리자" sheetId="4" r:id="rId2"/>
+    <sheet name="login" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>1depth</t>
   </si>
@@ -161,50 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이미지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> upload </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>링크</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 upload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>download(jpg, png, pdf)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,6 +211,42 @@
   </si>
   <si>
     <t>삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>download modal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 upload modal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -355,7 +348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -496,9 +489,66 @@
         <color rgb="FFCCCCCC"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -507,7 +557,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -547,11 +597,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -562,16 +612,40 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -912,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -970,48 +1044,52 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="27"/>
+      <c r="B6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
-      <c r="B7" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1022,9 +1100,18 @@
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
     </row>
+    <row r="10" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1036,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9929475D-7380-4EF6-BF75-8CEC4A9FD67C}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1087,10 +1174,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="7"/>
@@ -1099,9 +1186,9 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
-      <c r="B6" s="18" t="s">
-        <v>17</v>
+      <c r="A6" s="28"/>
+      <c r="B6" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="3"/>
@@ -1109,8 +1196,10 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="C7" s="11"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -1135,7 +1224,111 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32C4126-7265-4AF5-9773-61E209C2F2DD}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
